--- a/results/mp/logistic/corona/confidence/42/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,58 +52,70 @@
     <t>died</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
+    <t>.</t>
   </si>
   <si>
     <t>negative</t>
@@ -112,112 +124,127 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>join</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
@@ -229,16 +256,31 @@
     <t>sure</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>.</t>
+    <t>?</t>
   </si>
   <si>
     <t>,</t>
@@ -599,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,16 +731,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7534246575342466</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C4">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,31 +928,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="L7">
+        <v>106</v>
+      </c>
+      <c r="M7">
+        <v>106</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L7">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>49</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,37 +1010,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8113207547169812</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,16 +1081,16 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4603174603174603</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4509803921568628</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4324324324324325</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,16 +1231,16 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7887323943661971</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3701550387596899</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C14">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3050847457627119</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7708333333333334</v>
+        <v>0.783289817232376</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.28</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2013422818791946</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1583333333333333</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C18">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03485254691689008</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>360</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.75</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,37 +1560,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0113732097725358</v>
+        <v>0.1638888888888889</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E20">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2347</v>
+        <v>301</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,37 +1610,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005329153605015674</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3173</v>
+        <v>236</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,37 +1660,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004835589941972921</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3087</v>
+        <v>2280</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1668,37 +1710,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004668352460610776</v>
+        <v>0.006127055788455337</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5117</v>
+        <v>3082</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6147058823529412</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,57 +1760,81 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.003721795766457316</v>
+        <v>0.005912162162162162</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E24">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="F24">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4283</v>
+        <v>2354</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004423748544819557</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>52</v>
       </c>
-      <c r="K24">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L24">
-        <v>38</v>
-      </c>
-      <c r="M24">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="E25">
+        <v>0.63</v>
+      </c>
+      <c r="F25">
+        <v>0.37</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4276</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.5813953488372093</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
         <v>25</v>
@@ -1786,99 +1852,171 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.004398366321080742</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3169</v>
+      </c>
       <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.004285157771717959</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>53</v>
+      </c>
+      <c r="E27">
+        <v>0.58</v>
+      </c>
+      <c r="F27">
+        <v>0.42</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>5112</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.003428110506150433</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
         <v>54</v>
       </c>
-      <c r="K26">
-        <v>0.58</v>
-      </c>
-      <c r="L26">
-        <v>29</v>
-      </c>
-      <c r="M26">
-        <v>29</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="E28">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4942</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28">
+        <v>42</v>
+      </c>
+      <c r="M28">
+        <v>42</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27">
-        <v>0.5774058577405857</v>
-      </c>
-      <c r="L27">
-        <v>138</v>
-      </c>
-      <c r="M27">
-        <v>138</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28">
-        <v>0.575</v>
-      </c>
-      <c r="L28">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1895,16 +2033,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1916,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5694915254237288</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1942,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1968,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1994,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.5185185185185185</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2020,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.4857142857142857</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2046,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.4848484848484849</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2072,47 +2210,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.4831460674157304</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L37">
+        <v>46</v>
+      </c>
+      <c r="M37">
+        <v>46</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>43</v>
-      </c>
-      <c r="M37">
-        <v>43</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2124,47 +2262,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.3658536585365854</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
         <v>16</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.282051282051282</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2176,47 +2314,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.2328767123287671</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.21875</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2228,21 +2366,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.0175</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2254,163 +2392,475 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1179</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.01194217473287241</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N44">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1572</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.008636875704093128</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L45">
         <v>23</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2640</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.007420778178900923</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>4949</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.006725417439703154</v>
+        <v>0.25</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N47">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>4283</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.005323505323505323</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2429</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K49">
+        <v>0.02835696413678065</v>
+      </c>
+      <c r="L49">
+        <v>34</v>
+      </c>
+      <c r="M49">
+        <v>35</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50">
+        <v>0.02559414990859232</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51">
+        <v>0.01522842639593909</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>0.79</v>
+      </c>
+      <c r="O51">
+        <v>0.21</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52">
+        <v>0.01320754716981132</v>
+      </c>
+      <c r="L52">
+        <v>21</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>0.84</v>
+      </c>
+      <c r="O52">
+        <v>0.16</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53">
+        <v>0.01251203079884504</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>0.93</v>
+      </c>
+      <c r="O53">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54">
+        <v>0.01169134840218239</v>
+      </c>
+      <c r="L54">
+        <v>15</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+      <c r="N54">
+        <v>0.71</v>
+      </c>
+      <c r="O54">
+        <v>0.29</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55">
+        <v>0.01051840721262209</v>
+      </c>
+      <c r="L55">
         <v>28</v>
       </c>
-      <c r="K49">
-        <v>0.004668352460610776</v>
-      </c>
-      <c r="L49">
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <v>0.72</v>
+      </c>
+      <c r="O55">
+        <v>0.28</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>0.008357709987463435</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>21</v>
+      </c>
+      <c r="N56">
+        <v>0.95</v>
+      </c>
+      <c r="O56">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>0.00765838941749826</v>
+      </c>
+      <c r="L57">
+        <v>33</v>
+      </c>
+      <c r="M57">
+        <v>52</v>
+      </c>
+      <c r="N57">
+        <v>0.63</v>
+      </c>
+      <c r="O57">
+        <v>0.37</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58">
+        <v>0.007431211086563567</v>
+      </c>
+      <c r="L58">
+        <v>37</v>
+      </c>
+      <c r="M58">
+        <v>54</v>
+      </c>
+      <c r="N58">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59">
+        <v>0.006027610344157107</v>
+      </c>
+      <c r="L59">
+        <v>31</v>
+      </c>
+      <c r="M59">
+        <v>53</v>
+      </c>
+      <c r="N59">
+        <v>0.58</v>
+      </c>
+      <c r="O59">
+        <v>0.42</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60">
+        <v>0.005647944775651083</v>
+      </c>
+      <c r="L60">
+        <v>18</v>
+      </c>
+      <c r="M60">
+        <v>32</v>
+      </c>
+      <c r="N60">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61">
+        <v>0.005341002465078061</v>
+      </c>
+      <c r="L61">
+        <v>13</v>
+      </c>
+      <c r="M61">
         <v>24</v>
       </c>
-      <c r="M49">
-        <v>48</v>
-      </c>
-      <c r="N49">
-        <v>0.5</v>
-      </c>
-      <c r="O49">
-        <v>0.5</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>5117</v>
+      <c r="N61">
+        <v>0.54</v>
+      </c>
+      <c r="O61">
+        <v>0.46</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2421</v>
       </c>
     </row>
   </sheetData>
